--- a/csvexport/morris_26.xlsx
+++ b/csvexport/morris_26.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Bap_Project\csvexport\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ARCHIVE\BAP\__Project\csvexport\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CD3DF6-2E28-4681-A857-CCA0217CF52D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12315"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="56">
   <si>
     <t>glazing_ratio</t>
   </si>
@@ -114,12 +115,90 @@
   </si>
   <si>
     <t>mu_star_conf</t>
+  </si>
+  <si>
+    <t>'glazing_ratio'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'wall_u_value'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'window_u_value'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'window_sghc'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'infiltration_rate'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'chiller_cop'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'indoor_temp_set_point'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'equipment_load_density'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'lighting_load_density'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'occupancy_density'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'bld_height'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ver_to_hor'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'bld_density'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'urban_road_volumetric_heat_capacity'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'urban_area_length'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'road_albedo'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'sensible_anthropogenic_heat'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'urban_road_thermal_conductivity'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'urban_road_thickness'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'wall_albedo'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'roof_albedo'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'wall_emissivity'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'roof_emissivity'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'roof_vegetation_coverage'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'floor_height'</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 'ventilation_rate'</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -172,7 +251,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="tr-TR"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -239,16 +318,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="2800" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="2800">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US" sz="2800"/>
@@ -679,7 +755,461 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sayfa1!$D$86:$D$111</c:f>
+              <c:strCache>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v> 'ventilation_rate'</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v> 'window_sghc'</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v> 'roof_albedo'</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v> 'occupancy_density'</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v> 'roof_vegetation_coverage'</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v> 'road_albedo'</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v> 'window_u_value'</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v> 'sensible_anthropogenic_heat'</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v> 'urban_area_length'</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v> 'lighting_load_density'</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v> 'infiltration_rate'</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v> 'chiller_cop'</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v> 'urban_road_volumetric_heat_capacity'</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v> 'urban_road_thickness'</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v> 'equipment_load_density'</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v> 'wall_emissivity'</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v> 'roof_emissivity'</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v> 'urban_road_thermal_conductivity'</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v> 'floor_height'</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v> 'wall_albedo'</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v> 'ver_to_hor'</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v> 'bld_density'</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v> 'bld_height'</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>'glazing_ratio'</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v> 'wall_u_value'</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v> 'indoor_temp_set_point'</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$E$86:$E$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.33928571428587E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.78571428571394E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.6272321428556498E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1294642857161402E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9665178571428603E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.5892857142875097E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9.2633928571439397E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9.6540178571415895E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.4899553571429899E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8303571428572099E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1651785714284999E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.2321428571426799E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5613839285712502E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.7566964285713799E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.9743303571429399E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.1082589285715601E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.6495535714283503E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.8214285714285203E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.8214285714286799E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.4341517857142802E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.64508928571421E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.6875000000000405E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>9.9386160714285299E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.20055803571428399</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.208426339285713</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BEA8-46B2-BCB6-F2963C1344F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="1587643919"/>
+        <c:axId val="1587645583"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1587643919"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587645583"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1587645583"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1587643919"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1224,6 +1754,511 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1241,7 +2276,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Grafik 1"/>
+        <xdr:cNvPr id="2" name="Grafik 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1251,6 +2292,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>81</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>514351</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B819F66-C4FF-4F90-B6EA-C91E7A0D10DB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1521,11 +2598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C3:K69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="C3:AC111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U118" sqref="U118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,7 +3243,7 @@
         <v>4.4640000000000001E-3</v>
       </c>
     </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C65" t="s">
         <v>24</v>
       </c>
@@ -2174,7 +3251,7 @@
         <v>3.4039999999999999E-3</v>
       </c>
     </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C66" t="s">
         <v>23</v>
       </c>
@@ -2182,7 +3259,7 @@
         <v>2.6229999999999999E-3</v>
       </c>
     </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C67" t="s">
         <v>19</v>
       </c>
@@ -2190,7 +3267,7 @@
         <v>2.23E-4</v>
       </c>
     </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C68" t="s">
         <v>21</v>
       </c>
@@ -2198,7 +3275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:29" x14ac:dyDescent="0.25">
       <c r="C69" t="s">
         <v>22</v>
       </c>
@@ -2206,9 +3283,377 @@
         <v>0</v>
       </c>
     </row>
+    <row r="79" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D79" t="s">
+        <v>30</v>
+      </c>
+      <c r="E79" t="s">
+        <v>31</v>
+      </c>
+      <c r="F79" t="s">
+        <v>32</v>
+      </c>
+      <c r="G79" t="s">
+        <v>33</v>
+      </c>
+      <c r="H79" t="s">
+        <v>34</v>
+      </c>
+      <c r="I79" t="s">
+        <v>35</v>
+      </c>
+      <c r="J79" t="s">
+        <v>36</v>
+      </c>
+      <c r="K79" t="s">
+        <v>37</v>
+      </c>
+      <c r="L79" t="s">
+        <v>38</v>
+      </c>
+      <c r="M79" t="s">
+        <v>39</v>
+      </c>
+      <c r="N79" t="s">
+        <v>40</v>
+      </c>
+      <c r="O79" t="s">
+        <v>41</v>
+      </c>
+      <c r="P79" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>43</v>
+      </c>
+      <c r="R79" t="s">
+        <v>44</v>
+      </c>
+      <c r="S79" t="s">
+        <v>45</v>
+      </c>
+      <c r="T79" t="s">
+        <v>46</v>
+      </c>
+      <c r="U79" t="s">
+        <v>47</v>
+      </c>
+      <c r="V79" t="s">
+        <v>48</v>
+      </c>
+      <c r="W79" t="s">
+        <v>49</v>
+      </c>
+      <c r="X79" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>51</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA79" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB79" t="s">
+        <v>54</v>
+      </c>
+      <c r="AC79" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="3:29" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>9.9386160714285299E-2</v>
+      </c>
+      <c r="E80">
+        <v>0.20055803571428399</v>
+      </c>
+      <c r="F80">
+        <v>7.5892857142875097E-3</v>
+      </c>
+      <c r="G80">
+        <v>1.33928571428587E-3</v>
+      </c>
+      <c r="H80">
+        <v>1.8303571428572099E-2</v>
+      </c>
+      <c r="I80">
+        <v>2.1651785714284999E-2</v>
+      </c>
+      <c r="J80">
+        <v>0.208426339285713</v>
+      </c>
+      <c r="K80">
+        <v>2.7566964285713799E-2</v>
+      </c>
+      <c r="L80">
+        <v>1.4899553571429899E-2</v>
+      </c>
+      <c r="M80">
+        <v>3.6272321428556498E-3</v>
+      </c>
+      <c r="N80">
+        <v>9.6875000000000405E-2</v>
+      </c>
+      <c r="O80">
+        <v>6.4341517857142802E-2</v>
+      </c>
+      <c r="P80">
+        <v>7.64508928571421E-2</v>
+      </c>
+      <c r="Q80">
+        <v>2.2321428571426799E-2</v>
+      </c>
+      <c r="R80">
+        <v>9.6540178571415895E-3</v>
+      </c>
+      <c r="S80">
+        <v>4.9665178571428603E-3</v>
+      </c>
+      <c r="T80">
+        <v>9.2633928571439397E-3</v>
+      </c>
+      <c r="U80">
+        <v>3.6495535714283503E-2</v>
+      </c>
+      <c r="V80">
+        <v>2.5613839285712502E-2</v>
+      </c>
+      <c r="W80">
+        <v>4.8214285714286799E-2</v>
+      </c>
+      <c r="X80">
+        <v>1.78571428571394E-3</v>
+      </c>
+      <c r="Y80">
+        <v>2.9743303571429399E-2</v>
+      </c>
+      <c r="Z80">
+        <v>3.1082589285715601E-2</v>
+      </c>
+      <c r="AA80">
+        <v>4.1294642857161402E-3</v>
+      </c>
+      <c r="AB80">
+        <v>4.8214285714285203E-2</v>
+      </c>
+      <c r="AC80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D86" t="s">
+        <v>55</v>
+      </c>
+      <c r="E86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D87" t="s">
+        <v>33</v>
+      </c>
+      <c r="E87">
+        <v>1.33928571428587E-3</v>
+      </c>
+    </row>
+    <row r="88" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D88" t="s">
+        <v>50</v>
+      </c>
+      <c r="E88">
+        <v>1.78571428571394E-3</v>
+      </c>
+    </row>
+    <row r="89" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D89" t="s">
+        <v>39</v>
+      </c>
+      <c r="E89">
+        <v>3.6272321428556498E-3</v>
+      </c>
+    </row>
+    <row r="90" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D90" t="s">
+        <v>53</v>
+      </c>
+      <c r="E90">
+        <v>4.1294642857161402E-3</v>
+      </c>
+    </row>
+    <row r="91" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D91" t="s">
+        <v>45</v>
+      </c>
+      <c r="E91">
+        <v>4.9665178571428603E-3</v>
+      </c>
+    </row>
+    <row r="92" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D92" t="s">
+        <v>32</v>
+      </c>
+      <c r="E92">
+        <v>7.5892857142875097E-3</v>
+      </c>
+    </row>
+    <row r="93" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D93" t="s">
+        <v>46</v>
+      </c>
+      <c r="E93">
+        <v>9.2633928571439397E-3</v>
+      </c>
+    </row>
+    <row r="94" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D94" t="s">
+        <v>44</v>
+      </c>
+      <c r="E94">
+        <v>9.6540178571415895E-3</v>
+      </c>
+    </row>
+    <row r="95" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D95" t="s">
+        <v>38</v>
+      </c>
+      <c r="E95">
+        <v>1.4899553571429899E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D96" t="s">
+        <v>34</v>
+      </c>
+      <c r="E96">
+        <v>1.8303571428572099E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D97" t="s">
+        <v>35</v>
+      </c>
+      <c r="E97">
+        <v>2.1651785714284999E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D98" t="s">
+        <v>43</v>
+      </c>
+      <c r="E98">
+        <v>2.2321428571426799E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D99" t="s">
+        <v>48</v>
+      </c>
+      <c r="E99">
+        <v>2.5613839285712502E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D100" t="s">
+        <v>37</v>
+      </c>
+      <c r="E100">
+        <v>2.7566964285713799E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D101" t="s">
+        <v>51</v>
+      </c>
+      <c r="E101">
+        <v>2.9743303571429399E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D102" t="s">
+        <v>52</v>
+      </c>
+      <c r="E102">
+        <v>3.1082589285715601E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D103" t="s">
+        <v>47</v>
+      </c>
+      <c r="E103">
+        <v>3.6495535714283503E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D104" t="s">
+        <v>54</v>
+      </c>
+      <c r="E104">
+        <v>4.8214285714285203E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D105" t="s">
+        <v>49</v>
+      </c>
+      <c r="E105">
+        <v>4.8214285714286799E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D106" t="s">
+        <v>41</v>
+      </c>
+      <c r="E106">
+        <v>6.4341517857142802E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D107" t="s">
+        <v>42</v>
+      </c>
+      <c r="E107">
+        <v>7.64508928571421E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D108" t="s">
+        <v>40</v>
+      </c>
+      <c r="E108">
+        <v>9.6875000000000405E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D109" t="s">
+        <v>30</v>
+      </c>
+      <c r="E109">
+        <v>9.9386160714285299E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D110" t="s">
+        <v>31</v>
+      </c>
+      <c r="E110">
+        <v>0.20055803571428399</v>
+      </c>
+    </row>
+    <row r="111" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D111" t="s">
+        <v>36</v>
+      </c>
+      <c r="E111">
+        <v>0.208426339285713</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="C44:D69">
-    <sortCondition descending="1" ref="D44:D69"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D86:E111">
+    <sortCondition ref="E86:E111"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
